--- a/Mifos Automation Excels/Loan Product/438-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Loanproduct4.xlsx
+++ b/Mifos Automation Excels/Loan Product/438-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Loanproduct4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>productname</t>
   </si>
@@ -143,20 +143,95 @@
     <t>Same as repayment period</t>
   </si>
   <si>
-    <t>Karr. Tr. Loa8</t>
-  </si>
-  <si>
-    <t>kar8</t>
+    <t>438-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment</t>
+  </si>
+  <si>
+    <t>preclosureinterestcalculationrule</t>
+  </si>
+  <si>
+    <t>Calculate till pre closure date</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan portfolio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Receivable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penalties Receivable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer in Suspence </t>
+  </si>
+  <si>
+    <t>Fees Receivable</t>
+  </si>
+  <si>
+    <t>Income from interest</t>
+  </si>
+  <si>
+    <t>Income from penalties</t>
+  </si>
+  <si>
+    <t>Income from fees</t>
+  </si>
+  <si>
+    <t>Income from recovery repayments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losses Writtenoff </t>
+  </si>
+  <si>
+    <t>Overpayment Liability</t>
+  </si>
+  <si>
+    <t>fundsource</t>
+  </si>
+  <si>
+    <t>loanprotfolio</t>
+  </si>
+  <si>
+    <t>interestreceivable</t>
+  </si>
+  <si>
+    <t>penaltiesreceivable</t>
+  </si>
+  <si>
+    <t>transferinsuspense</t>
+  </si>
+  <si>
+    <t>feesreceivable</t>
+  </si>
+  <si>
+    <t>incomefrominterest</t>
+  </si>
+  <si>
+    <t>incomefrompenalties</t>
+  </si>
+  <si>
+    <t>incomefromfees</t>
+  </si>
+  <si>
+    <t>incomefromrecoveryrepayments</t>
+  </si>
+  <si>
+    <t>loseswrittenoff</t>
+  </si>
+  <si>
+    <t>overpaymentliability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmmm\-yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -308,6 +383,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -342,6 +418,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,20 +594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -538,7 +615,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -546,15 +623,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
+      <c r="B3" s="5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -562,7 +639,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -570,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -578,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -586,7 +663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -594,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -602,7 +679,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -610,15 +687,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="12" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -626,7 +703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -634,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -642,7 +719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -650,7 +727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -658,7 +735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -666,7 +743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -674,7 +751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -682,7 +759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -690,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -698,68 +775,172 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B26" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B27" s="6">
         <v>42005</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B30" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -769,20 +950,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
